--- a/Finflux Automation Excels/Client/5005-DISB01JAN2015-10000-amount-EARLYREPAY-on-15JAN2015-DISB-TOPUP-10000amount-15JAN2015-topup.xlsx
+++ b/Finflux Automation Excels/Client/5005-DISB01JAN2015-10000-amount-EARLYREPAY-on-15JAN2015-DISB-TOPUP-10000amount-15JAN2015-topup.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -553,12 +553,12 @@
         <v>10000</v>
       </c>
       <c r="F2" s="4">
-        <v>3266.25</v>
+        <v>3269.11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>350</v>
+        <v>352.83</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -570,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="3">
-        <v>350</v>
+        <v>352.83</v>
       </c>
       <c r="F3" s="3">
-        <v>183.75</v>
+        <v>183.72</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -626,7 +626,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,10 +669,10 @@
       <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1"/>
       <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
@@ -722,11 +722,11 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="2">
-        <v>1625</v>
-      </c>
-      <c r="G3" s="2">
-        <v>8375</v>
+      <c r="F3" s="4">
+        <v>1627.83</v>
+      </c>
+      <c r="G3" s="4">
+        <v>8372.17</v>
       </c>
       <c r="H3" s="3">
         <v>100</v>
@@ -737,22 +737,22 @@
       <c r="J3" s="3">
         <v>0</v>
       </c>
-      <c r="K3" s="2">
-        <v>1725</v>
+      <c r="K3" s="4">
+        <v>1727.83</v>
       </c>
       <c r="L3" s="3">
         <v>0</v>
       </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
       <c r="O3" s="3">
         <v>0</v>
       </c>
       <c r="P3" s="3"/>
-      <c r="Q3" s="2">
-        <v>1725</v>
+      <c r="Q3" s="4">
+        <v>1727.83</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -768,13 +768,13 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="4">
-        <v>1641.25</v>
+        <v>1641.28</v>
       </c>
       <c r="G4" s="4">
-        <v>6733.75</v>
+        <v>6730.89</v>
       </c>
       <c r="H4" s="3">
-        <v>83.75</v>
+        <v>83.72</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
@@ -788,10 +788,10 @@
       <c r="L4" s="3">
         <v>0</v>
       </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
       <c r="O4" s="3">
         <v>0</v>
       </c>
@@ -813,13 +813,13 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="4">
-        <v>1657.66</v>
+        <v>1657.69</v>
       </c>
       <c r="G5" s="4">
-        <v>5076.09</v>
+        <v>5073.2</v>
       </c>
       <c r="H5" s="3">
-        <v>67.34</v>
+        <v>67.31</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
@@ -833,10 +833,10 @@
       <c r="L5" s="3">
         <v>0</v>
       </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
       <c r="O5" s="3">
         <v>0</v>
       </c>
@@ -858,13 +858,13 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4">
-        <v>1674.24</v>
+        <v>1674.27</v>
       </c>
       <c r="G6" s="4">
-        <v>3401.85</v>
+        <v>3398.93</v>
       </c>
       <c r="H6" s="3">
-        <v>50.76</v>
+        <v>50.73</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -878,10 +878,10 @@
       <c r="L6" s="3">
         <v>0</v>
       </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
       <c r="O6" s="3">
         <v>0</v>
       </c>
@@ -903,13 +903,13 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="4">
-        <v>1690.98</v>
+        <v>1691.01</v>
       </c>
       <c r="G7" s="4">
-        <v>1710.87</v>
+        <v>1707.92</v>
       </c>
       <c r="H7" s="3">
-        <v>34.020000000000003</v>
+        <v>33.99</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
@@ -923,10 +923,10 @@
       <c r="L7" s="3">
         <v>0</v>
       </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
       <c r="O7" s="3">
         <v>0</v>
       </c>
@@ -948,13 +948,13 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="4">
-        <v>1710.87</v>
+        <v>1707.92</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>14.13</v>
+        <v>17.079999999999998</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -968,10 +968,10 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
@@ -989,9 +989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
